--- a/data/trans_dic/P56$amigo-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P56$amigo-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +725,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 16,16</t>
+          <t>2,28; 18,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -739,47 +740,47 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,76</t>
+          <t>0,0; 5,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,73</t>
+          <t>0,0; 7,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 5,97</t>
+          <t>1,12; 6,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 5,84</t>
+          <t>0,0; 6,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,11; 6,24</t>
+          <t>2,25; 6,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 7,48</t>
+          <t>0,81; 8,2</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,71</t>
+          <t>0,82; 5,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,45</t>
+          <t>0,49; 4,4</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 5,2</t>
+          <t>1,95; 5,4</t>
         </is>
       </c>
     </row>
@@ -879,7 +880,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,12</t>
+          <t>1,79; 21,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +900,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,05</t>
+          <t>0,0; 6,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 9,64</t>
+          <t>1,14; 9,99</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1020,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,75</t>
+          <t>0,0; 54,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1040,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,75</t>
+          <t>0,0; 37,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,91</t>
+          <t>0,0; 37,15</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1145,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 15,99</t>
+          <t>2,09; 16,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1159,47 +1160,47 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 8,42</t>
+          <t>1,52; 8,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,23</t>
+          <t>0,0; 7,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 5,82</t>
+          <t>1,03; 5,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 4,91</t>
+          <t>0,57; 5,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 5,56</t>
+          <t>2,06; 5,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,98</t>
+          <t>1,36; 7,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,25</t>
+          <t>0,75; 4,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,74</t>
+          <t>0,41; 3,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,5</t>
+          <t>2,29; 5,39</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda sus amistades cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3076</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1021</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5435</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3383</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7763</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>4192</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5435</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3383</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>8784</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1006; 8182</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2218</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1696</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3829</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6397</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2088; 12050</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9057</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4521; 12719</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1035; 10460</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2097; 12807</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>984; 8780</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5227; 14502</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2122</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2686</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1268</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1710</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1622</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>486; 5775</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1788</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1845</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2297</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2863</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1712</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1890</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2114</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>787; 6914</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1464</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 761</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1877</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3523</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3361</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1603</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1630</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2403</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3361</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1654</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2086</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4808</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3076</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>4016</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2042</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5435</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3383</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8919</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5118</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>5435</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3383</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>12934</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1008; 8102</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2178</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1748</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1545; 8793</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7043</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2076; 11875</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>974; 9572</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5140; 14684</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1926; 10378</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2095; 11275</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>996; 9353</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>8041; 18884</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>